--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,97 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FDA88-7A10-4F7F-BD6B-90457D84EE0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conor\Desktop\webdriverioframe-pli\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE553194-ACCF-4928-953B-B84BADCF4ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
-    <sheet name="eBayTotal" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Suite" sheetId="4" r:id="rId1"/>
+    <sheet name="eBayHomePageSearch" sheetId="1" r:id="rId2"/>
+    <sheet name="urlTest" sheetId="2" r:id="rId3"/>
+    <sheet name="eBayWatchesSearch" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>RunType</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>Run</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t>searchText</t>
   </si>
   <si>
+    <t>expectedValue</t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>expectedValue</t>
-  </si>
-  <si>
-    <t>LAPTOP</t>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>PC Laptops &amp; Netbooks</t>
+  </si>
+  <si>
+    <t>infoTitle</t>
+  </si>
+  <si>
+    <t>Up to 30% off Rolex</t>
+  </si>
+  <si>
+    <t>expectedLinkText</t>
+  </si>
+  <si>
+    <t>rolex</t>
+  </si>
+  <si>
+    <t>expectedUrl</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/e/fashion/rolex-021720</t>
+  </si>
+  <si>
+    <t>eBayHomePageSearch</t>
+  </si>
+  <si>
+    <t>urlTest</t>
+  </si>
+  <si>
+    <t>eBayWatchesSearch</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Laptops &amp; Netbooks</t>
+  </si>
+  <si>
+    <t>test_case_name</t>
+  </si>
+  <si>
+    <t>run_mode</t>
+  </si>
+  <si>
+    <t>homeTitle</t>
+  </si>
+  <si>
+    <t>Electronics, Cars, Fashion, Collectibles &amp; More | eBay</t>
+  </si>
+  <si>
+    <t>laptopTitle</t>
+  </si>
+  <si>
+    <t>laptop | eBay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -99,31 +157,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -150,8 +204,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{91A0A6A1-2DAA-4833-B9F6-C1543AF72170}">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2E55167B-59AA-4DF4-9B11-DF885B6A9189}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -210,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,26 +297,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,20 +366,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -481,88 +497,93 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8807F8F-41ED-4A27-8F81-A02B485A9DEF}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -570,14 +591,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BF0E22-E1B3-4BFF-A8D5-C2CCC3AE31B4}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{48BB7D9F-A082-479B-A2B0-CEB4F1CEE46E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>